--- a/media/toa-do.xlsx
+++ b/media/toa-do.xlsx
@@ -5,13 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Edges" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Lights" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Stones" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Map1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Map2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Edges2" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">NAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAV_NEW</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -182,7 +188,7 @@
         <v>246</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,7 +210,7 @@
         <v>603</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,7 +221,7 @@
         <v>962</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,7 +232,7 @@
         <v>1059</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,7 +243,7 @@
         <v>1185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,7 +251,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>166</v>
@@ -256,7 +262,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>244</v>
@@ -292,7 +298,7 @@
         <v>1085</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,7 +317,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>164</v>
@@ -322,7 +328,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>247</v>
@@ -336,7 +342,7 @@
         <v>512</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,7 +353,7 @@
         <v>246</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,7 +361,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>161</v>
@@ -366,7 +372,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>248</v>
@@ -377,7 +383,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>332</v>
@@ -388,7 +394,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>433</v>
@@ -399,7 +405,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>491</v>
@@ -424,7 +430,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,7 +438,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>588</v>
@@ -446,7 +452,7 @@
         <v>247</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,7 +471,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>336</v>
@@ -489,7 +495,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>486</v>
@@ -502,7 +508,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>583</v>
@@ -518,7 +524,7 @@
         <v>601</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -542,7 +548,7 @@
         <v>942</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,7 +559,7 @@
         <v>1086</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +567,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>433</v>
@@ -594,7 +600,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>608</v>
@@ -619,7 +625,7 @@
         <v>951</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,7 +636,7 @@
         <v>1093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +647,7 @@
         <v>602</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +655,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>675</v>
@@ -685,7 +691,7 @@
         <v>245</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +699,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>675</v>
@@ -704,7 +710,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>776</v>
@@ -715,7 +721,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>829</v>
@@ -737,10 +743,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,6 +761,12 @@
       <c r="B1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -763,6 +775,14 @@
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">SUM(A2, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">SUM(B2, 1)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -771,6 +791,14 @@
       <c r="B3" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">SUM(A3, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">SUM(B3, 1)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -779,6 +807,14 @@
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">SUM(A4, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">SUM(B4, 1)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -787,6 +823,14 @@
       <c r="B5" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">SUM(A5, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">SUM(B5, 1)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -795,6 +839,14 @@
       <c r="B6" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">SUM(A6, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">SUM(B6, 1)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -803,6 +855,14 @@
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">SUM(A7, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">SUM(B7, 1)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -811,6 +871,14 @@
       <c r="B8" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">SUM(A8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">SUM(B8, 1)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -819,6 +887,14 @@
       <c r="B9" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">SUM(A9, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">SUM(B9, 1)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -827,6 +903,14 @@
       <c r="B10" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">SUM(A10, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">SUM(B10, 1)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -835,6 +919,14 @@
       <c r="B11" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">SUM(A11, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">SUM(B11, 1)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -843,6 +935,14 @@
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">SUM(A12, 1)</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">SUM(B12, 1)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -851,6 +951,14 @@
       <c r="B13" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">SUM(A13, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">SUM(B13, 1)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -859,6 +967,14 @@
       <c r="B14" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">SUM(A14, 1)</f>
+        <v>11</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">SUM(B14, 1)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -867,6 +983,14 @@
       <c r="B15" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">SUM(A15, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">SUM(B15, 1)</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -875,6 +999,14 @@
       <c r="B16" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">SUM(A16, 1)</f>
+        <v>13</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">SUM(B16, 1)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -883,6 +1015,14 @@
       <c r="B17" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">SUM(A17, 1)</f>
+        <v>14</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">SUM(B17, 1)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -891,6 +1031,14 @@
       <c r="B18" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">SUM(A18, 1)</f>
+        <v>15</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">SUM(B18, 1)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -899,6 +1047,14 @@
       <c r="B19" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">SUM(A19, 1)</f>
+        <v>15</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">SUM(B19, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -907,6 +1063,14 @@
       <c r="B20" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(A20, 1)</f>
+        <v>16</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM(B20, 1)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -915,6 +1079,14 @@
       <c r="B21" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(A21, 1)</f>
+        <v>16</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM(B21, 1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -923,6 +1095,14 @@
       <c r="B22" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">SUM(A22, 1)</f>
+        <v>17</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">SUM(B22, 1)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -931,6 +1111,14 @@
       <c r="B23" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(A23, 1)</f>
+        <v>18</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM(B23, 1)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -939,6 +1127,14 @@
       <c r="B24" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">SUM(A24, 1)</f>
+        <v>19</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">SUM(B24, 1)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -947,6 +1143,14 @@
       <c r="B25" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">SUM(A25, 1)</f>
+        <v>19</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">SUM(B25, 1)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -955,6 +1159,14 @@
       <c r="B26" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">SUM(A26, 1)</f>
+        <v>20</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">SUM(B26, 1)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -963,6 +1175,14 @@
       <c r="B27" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">SUM(A27, 1)</f>
+        <v>21</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">SUM(B27, 1)</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -971,6 +1191,14 @@
       <c r="B28" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">SUM(A28, 1)</f>
+        <v>21</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">SUM(B28, 1)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -979,6 +1207,14 @@
       <c r="B29" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">SUM(A29, 1)</f>
+        <v>22</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">SUM(B29, 1)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -987,6 +1223,14 @@
       <c r="B30" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">SUM(A30, 1)</f>
+        <v>23</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">SUM(B30, 1)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -995,6 +1239,14 @@
       <c r="B31" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">SUM(A31, 1)</f>
+        <v>25</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">SUM(B31, 1)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -1003,6 +1255,14 @@
       <c r="B32" s="0" t="n">
         <v>47</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">SUM(A32, 1)</f>
+        <v>25</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">SUM(B32, 1)</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -1011,6 +1271,14 @@
       <c r="B33" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">SUM(A33, 1)</f>
+        <v>26</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">SUM(B33, 1)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -1019,6 +1287,14 @@
       <c r="B34" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">SUM(A34, 1)</f>
+        <v>27</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">SUM(B34, 1)</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -1027,6 +1303,14 @@
       <c r="B35" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">SUM(A35, 1)</f>
+        <v>27</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">SUM(B35, 1)</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -1035,6 +1319,14 @@
       <c r="B36" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">SUM(A36, 1)</f>
+        <v>28</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">SUM(B36, 1)</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -1043,6 +1335,14 @@
       <c r="B37" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">SUM(A37, 1)</f>
+        <v>29</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">SUM(B37, 1)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -1051,6 +1351,14 @@
       <c r="B38" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">SUM(A38, 1)</f>
+        <v>29</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">SUM(B38, 1)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -1059,6 +1367,14 @@
       <c r="B39" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">SUM(A39, 1)</f>
+        <v>30</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">SUM(B39, 1)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -1067,6 +1383,14 @@
       <c r="B40" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">SUM(A40, 1)</f>
+        <v>31</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">SUM(B40, 1)</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -1075,6 +1399,14 @@
       <c r="B41" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">SUM(A41, 1)</f>
+        <v>31</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">SUM(B41, 1)</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -1083,6 +1415,14 @@
       <c r="B42" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">SUM(A42, 1)</f>
+        <v>32</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">SUM(B42, 1)</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -1091,6 +1431,14 @@
       <c r="B43" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">SUM(A43, 1)</f>
+        <v>33</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">SUM(B43, 1)</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -1099,141 +1447,245 @@
       <c r="B44" s="0" t="n">
         <v>37</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">SUM(A44, 1)</f>
+        <v>33</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">SUM(B44, 1)</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">SUM(A45, 1)</f>
+        <v>34</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">SUM(B45, 1)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">SUM(A46, 1)</f>
+        <v>36</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">SUM(B46, 1)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B47" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>34</v>
+      <c r="G47" s="0" t="n">
+        <f aca="false">SUM(A47, 1)</f>
+        <v>37</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">SUM(B47, 1)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">SUM(A48, 1)</f>
+        <v>38</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">SUM(B48, 1)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">SUM(A49, 1)</f>
+        <v>39</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">SUM(B49, 1)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">SUM(A50, 1)</f>
+        <v>40</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">SUM(B50, 1)</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">SUM(A51, 1)</f>
+        <v>41</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">SUM(B51, 1)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">SUM(A52, 1)</f>
+        <v>43</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="false">SUM(B52, 1)</f>
         <v>40</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">SUM(A53, 1)</f>
+        <v>44</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">SUM(B53, 1)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">SUM(A54, 1)</f>
+        <v>46</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">SUM(B54, 1)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">SUM(A55, 1)</f>
+        <v>47</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">SUM(B55, 1)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">SUM(A56, 1)</f>
+        <v>48</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">SUM(B56, 1)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B57" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>45</v>
+      <c r="G57" s="0" t="n">
+        <f aca="false">SUM(A57, 1)</f>
+        <v>49</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">SUM(B57, 1)</f>
+        <v>47</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">SUM(A58, 1)</f>
+        <v>49</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <f aca="false">SUM(B58, 1)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>46</v>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1252,10 +1704,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1273,6 +1725,9 @@
       <c r="C1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1284,6 +1739,10 @@
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">SUM(C2, 1)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1295,6 +1754,10 @@
       <c r="C3" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SUM(C3, 1)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1306,6 +1769,10 @@
       <c r="C4" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">SUM(C4, 1)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1317,6 +1784,10 @@
       <c r="C5" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">SUM(C5, 1)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1328,6 +1799,10 @@
       <c r="C6" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">SUM(C6, 1)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1339,6 +1814,10 @@
       <c r="C7" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">SUM(C7, 1)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1350,6 +1829,10 @@
       <c r="C8" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">SUM(C8, 1)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1361,6 +1844,10 @@
       <c r="C9" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">SUM(C9, 1)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1372,6 +1859,10 @@
       <c r="C10" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">SUM(C10, 1)</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1383,6 +1874,10 @@
       <c r="C11" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">SUM(C11, 1)</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1393,6 +1888,10 @@
       </c>
       <c r="C12" s="0" t="n">
         <v>39</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">SUM(C12, 1)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1912,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1530,4 +2029,1250 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>829</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/media/toa-do.xlsx
+++ b/media/toa-do.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" state="visible" r:id="rId2"/>
@@ -1706,8 +1706,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>75</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>75</v>
@@ -1764,7 +1764,7 @@
         <v>1040</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
@@ -1779,7 +1779,7 @@
         <v>588</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>14</v>
@@ -1794,7 +1794,7 @@
         <v>233</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>18</v>
@@ -1809,7 +1809,7 @@
         <v>231</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>20</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>585</v>
@@ -1854,7 +1854,7 @@
         <v>590</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>32</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>586</v>
@@ -2634,8 +2634,8 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
